--- a/examples/optimization/scipy/2020 Filter in region.xlsx
+++ b/examples/optimization/scipy/2020 Filter in region.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\Documents\NREL 2020 Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCF688-12F4-4D49-8719-B70693BF60A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735327F-B441-4E4B-8A06-857912060AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4575" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{E4BE28C7-4D3E-41E2-AA29-DA3E1280E5CB}"/>
   </bookViews>
@@ -7766,8 +7766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE708-67FC-417E-9023-CCDD3588DEED}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="18"/>

--- a/examples/optimization/scipy/2020 Filter in region.xlsx
+++ b/examples/optimization/scipy/2020 Filter in region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFA4993-F17B-4EE1-9876-6793F686DF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F4AAB7-7BF9-4A58-9343-853F38E4B595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4575" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="7" xr2:uid="{E4BE28C7-4D3E-41E2-AA29-DA3E1280E5CB}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="200">
   <si>
     <t xml:space="preserve">WEST </t>
   </si>
@@ -644,12 +644,6 @@
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha </t>
-  </si>
-  <si>
-    <t>good example</t>
   </si>
   <si>
     <t>Density</t>
@@ -23207,10 +23201,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6ADE76-D3E9-4A51-9431-FB71CC179074}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23221,7 +23215,7 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
@@ -23243,18 +23237,15 @@
       <c r="G1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="L1" s="18"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
@@ -23275,22 +23266,19 @@
         <v>0.79382353971099195</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
         <f>F2/D2</f>
         <v>4.0708899472358562E-2</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>157</v>
       </c>
@@ -23311,22 +23299,19 @@
         <v>1.06391231196747</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H57" si="1">F3/D3</f>
+        <f t="shared" ref="G3:G57" si="1">F3/D3</f>
         <v>3.5463743732249003E-2</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>124</v>
       </c>
@@ -23347,13 +23332,11 @@
         <v>15.2755277325995</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
         <f t="shared" si="1"/>
         <v>0.26520013424651906</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
@@ -23362,9 +23345,8 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>118</v>
       </c>
@@ -23385,13 +23367,11 @@
         <v>16.065775144920998</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
         <f t="shared" si="1"/>
         <v>0.25501230388763491</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
@@ -23400,9 +23380,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>119</v>
       </c>
@@ -23423,24 +23402,21 @@
         <v>107.688440415125</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
         <f t="shared" si="1"/>
         <v>1.0855689557976311</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="36"/>
+      <c r="H6" s="33"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>128</v>
       </c>
@@ -23461,13 +23437,11 @@
         <v>18.625339192047601</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="1"/>
         <v>0.18260136462791765</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -23476,9 +23450,8 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>121</v>
       </c>
@@ -23499,24 +23472,21 @@
         <v>15.073523666255999</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
         <f t="shared" si="1"/>
         <v>0.16748359629173332</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="18"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>120</v>
       </c>
@@ -23536,22 +23506,22 @@
       <c r="F9">
         <v>38.650366611467597</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>0.30674894136085396</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="37"/>
+      <c r="H9" s="33"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -23571,11 +23541,12 @@
       <c r="F10">
         <v>48.8452638222007</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>0.30151397421111542</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -23584,9 +23555,8 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>123</v>
       </c>
@@ -23606,11 +23576,12 @@
       <c r="F11">
         <v>76.715260511838196</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>0.28753845769054803</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -23619,9 +23590,8 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
@@ -23641,11 +23611,12 @@
       <c r="F12">
         <v>1.1931628518770601</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>4.4191216736187408E-2</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -23654,9 +23625,8 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>90</v>
       </c>
@@ -23676,11 +23646,12 @@
       <c r="F13">
         <v>0.73394190343963694</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>1.8348547585990922E-2</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -23689,9 +23660,8 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
@@ -23711,11 +23681,12 @@
       <c r="F14">
         <v>2.4649236449394598</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>3.7347327953628176E-2</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -23724,9 +23695,8 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
@@ -23746,11 +23716,12 @@
       <c r="F15">
         <v>48.828405111760802</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>0.49321621325010911</v>
       </c>
-      <c r="I15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -23759,9 +23730,8 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>52</v>
       </c>
@@ -23781,11 +23751,12 @@
       <c r="F16">
         <v>86.729503008229798</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>0.41696876446264325</v>
       </c>
-      <c r="I16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -23794,9 +23765,8 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>64</v>
       </c>
@@ -23816,22 +23786,22 @@
       <c r="F17">
         <v>2.2230486313158999</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>0.13722522415530244</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="36"/>
+      <c r="H17" s="33"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>53</v>
       </c>
@@ -23851,11 +23821,12 @@
       <c r="F18">
         <v>0.69098762912678302</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>2.8791151213615959E-2</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -23864,9 +23835,8 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>131</v>
       </c>
@@ -23886,11 +23856,12 @@
       <c r="F19">
         <v>1.4758645975904701</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>3.5139633275963575E-2</v>
       </c>
-      <c r="I19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -23899,9 +23870,8 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>35</v>
       </c>
@@ -23920,11 +23890,12 @@
       <c r="F20">
         <v>13.9290067611312</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>0.17766590256544898</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -23933,9 +23904,8 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
@@ -23955,11 +23925,12 @@
       <c r="F21">
         <v>38.376475231890097</v>
       </c>
-      <c r="H21">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>0.47970594039862624</v>
       </c>
-      <c r="I21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -23968,9 +23939,8 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>66</v>
       </c>
@@ -23990,22 +23960,22 @@
       <c r="F22">
         <v>27.812351101112899</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>0.27673981195137215</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="37"/>
+      <c r="H22" s="33"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>125</v>
       </c>
@@ -24025,22 +23995,22 @@
       <c r="F23">
         <v>53.956210690206703</v>
       </c>
-      <c r="H23">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>0.38321172365203621</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="37"/>
+      <c r="H23" s="33"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
@@ -24060,11 +24030,12 @@
       <c r="F24">
         <v>1.94295628343529</v>
       </c>
-      <c r="H24">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>6.7463759841503129E-2</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -24073,9 +24044,8 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
@@ -24095,11 +24065,12 @@
       <c r="F25">
         <v>1.42401011830446</v>
       </c>
-      <c r="H25">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>7.3026159913049227E-2</v>
       </c>
-      <c r="I25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -24108,9 +24079,8 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>97</v>
       </c>
@@ -24130,11 +24100,12 @@
       <c r="F26">
         <v>15.4931164248125</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>0.41314977132833336</v>
       </c>
-      <c r="I26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -24143,9 +24114,8 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>88</v>
       </c>
@@ -24165,11 +24135,12 @@
       <c r="F27">
         <v>10.0764533676073</v>
       </c>
-      <c r="H27">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>0.23709302041428942</v>
       </c>
-      <c r="I27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
@@ -24178,9 +24149,8 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>101</v>
       </c>
@@ -24200,11 +24170,12 @@
       <c r="F28">
         <v>47.765526073465701</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>0.99511512653053547</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -24213,9 +24184,8 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>43</v>
       </c>
@@ -24235,11 +24205,12 @@
       <c r="F29">
         <v>24.847542011461002</v>
       </c>
-      <c r="H29">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>0.31235125092974231</v>
       </c>
-      <c r="I29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -24248,9 +24219,8 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>84</v>
       </c>
@@ -24270,11 +24240,12 @@
       <c r="F30">
         <v>17.717085933297199</v>
       </c>
-      <c r="H30">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>0.29627234002169228</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -24283,9 +24254,8 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>74</v>
       </c>
@@ -24305,11 +24275,12 @@
       <c r="F31">
         <v>23.436175118635099</v>
       </c>
-      <c r="H31">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>0.4650034745760932</v>
       </c>
-      <c r="I31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -24318,9 +24289,8 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>25</v>
       </c>
@@ -24340,11 +24310,12 @@
       <c r="F32">
         <v>16.992144809196901</v>
       </c>
-      <c r="H32">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>0.17163782635552424</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -24353,9 +24324,8 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>22</v>
       </c>
@@ -24375,11 +24345,12 @@
       <c r="F33">
         <v>29.817781789557799</v>
       </c>
-      <c r="H33">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>0.30771704633186586</v>
       </c>
-      <c r="I33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -24388,9 +24359,8 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
@@ -24410,11 +24380,12 @@
       <c r="F34">
         <v>43.239710430732501</v>
       </c>
-      <c r="H34">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>0.29147091628400745</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -24423,9 +24394,8 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>28</v>
       </c>
@@ -24445,11 +24415,12 @@
       <c r="F35">
         <v>49.060024525439601</v>
       </c>
-      <c r="H35">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>0.33857849914036992</v>
       </c>
-      <c r="I35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -24458,9 +24429,8 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>51</v>
       </c>
@@ -24480,11 +24450,12 @@
       <c r="F36">
         <v>16.437091811365001</v>
       </c>
-      <c r="H36">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>0.13697576509470835</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -24493,9 +24464,8 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>32</v>
       </c>
@@ -24515,14 +24485,12 @@
       <c r="F37">
         <v>31.178042444053698</v>
       </c>
-      <c r="H37">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>0.28088326526174501</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" t="s">
-        <v>200</v>
-      </c>
+      <c r="H37" s="33"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -24531,9 +24499,8 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>45</v>
       </c>
@@ -24553,22 +24520,22 @@
       <c r="F38">
         <v>71.815823516905695</v>
       </c>
-      <c r="H38">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>0.28833011549495408</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="36"/>
+      <c r="H38" s="33"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>21</v>
       </c>
@@ -24588,11 +24555,12 @@
       <c r="F39">
         <v>92.558920084765404</v>
       </c>
-      <c r="H39">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>0.61705946723176941</v>
       </c>
-      <c r="I39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -24601,9 +24569,8 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>30</v>
       </c>
@@ -24623,11 +24590,12 @@
       <c r="F40">
         <v>59.607572622954201</v>
       </c>
-      <c r="H40">
+      <c r="G40">
         <f t="shared" si="1"/>
         <v>0.39738381748636137</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -24636,9 +24604,8 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>61</v>
       </c>
@@ -24658,11 +24625,12 @@
       <c r="F41">
         <v>80.829145746055005</v>
       </c>
-      <c r="H41">
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>0.40681033643391717</v>
       </c>
-      <c r="I41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
@@ -24671,9 +24639,8 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>68</v>
       </c>
@@ -24693,11 +24660,12 @@
       <c r="F42">
         <v>106.3403136438</v>
       </c>
-      <c r="H42">
+      <c r="G42">
         <f t="shared" si="1"/>
         <v>0.46234918975565226</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
@@ -24706,9 +24674,8 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -24727,22 +24694,22 @@
       <c r="F43">
         <v>140.550924779035</v>
       </c>
-      <c r="H43">
+      <c r="G43">
         <f t="shared" si="1"/>
         <v>0.64437431129210987</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="37"/>
+      <c r="H43" s="33"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
@@ -24762,11 +24729,12 @@
       <c r="F44">
         <v>3.3471731527713802</v>
       </c>
-      <c r="H44">
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>0.11157243842571267</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
@@ -24775,9 +24743,8 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>92</v>
       </c>
@@ -24797,11 +24764,12 @@
       <c r="F45">
         <v>0.37287128470194603</v>
       </c>
-      <c r="H45">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>3.7663766131509707E-2</v>
       </c>
-      <c r="I45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
@@ -24810,9 +24778,8 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>89</v>
       </c>
@@ -24832,11 +24799,12 @@
       <c r="F46">
         <v>1.62869390957544</v>
       </c>
-      <c r="H46">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>5.5397752026375507E-2</v>
       </c>
-      <c r="I46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -24845,9 +24813,8 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>19</v>
       </c>
@@ -24867,11 +24834,12 @@
       <c r="F47">
         <v>5.2174952403367598</v>
       </c>
-      <c r="H47">
+      <c r="G47">
         <f t="shared" si="1"/>
         <v>0.18633911572631284</v>
       </c>
-      <c r="I47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -24880,9 +24848,8 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>12</v>
       </c>
@@ -24902,11 +24869,12 @@
       <c r="F48">
         <v>16.890341403209302</v>
       </c>
-      <c r="H48">
+      <c r="G48">
         <f t="shared" si="1"/>
         <v>0.31278410005943152</v>
       </c>
-      <c r="I48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -24915,9 +24883,8 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>83</v>
       </c>
@@ -24937,11 +24904,12 @@
       <c r="F49">
         <v>10.6347912459648</v>
       </c>
-      <c r="H49">
+      <c r="G49">
         <f t="shared" si="1"/>
         <v>0.10629476507710944</v>
       </c>
-      <c r="I49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -24950,9 +24918,8 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>100</v>
       </c>
@@ -24972,22 +24939,22 @@
       <c r="F50">
         <v>15.188091387357399</v>
       </c>
-      <c r="H50">
+      <c r="G50">
         <f t="shared" si="1"/>
         <v>0.2744009284075411</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
+      <c r="M50" s="20"/>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="18"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>36</v>
       </c>
@@ -25007,11 +24974,12 @@
       <c r="F51">
         <v>24.2982699371086</v>
       </c>
-      <c r="H51">
+      <c r="G51">
         <f t="shared" si="1"/>
         <v>0.35917620010507911</v>
       </c>
-      <c r="I51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -25020,9 +24988,8 @@
       <c r="P51" s="18"/>
       <c r="Q51" s="18"/>
       <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>20</v>
       </c>
@@ -25042,10 +25009,11 @@
       <c r="F52">
         <v>68.305404134458897</v>
       </c>
-      <c r="H52">
+      <c r="G52">
         <f t="shared" si="1"/>
         <v>0.58082826644948038</v>
       </c>
+      <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
@@ -25054,9 +25022,8 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -25076,21 +25043,21 @@
       <c r="F53">
         <v>43.266483510461001</v>
       </c>
-      <c r="H53">
+      <c r="G53">
         <f t="shared" si="1"/>
         <v>0.4292309872069543</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="36"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
       <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>62</v>
       </c>
@@ -25110,10 +25077,11 @@
       <c r="F54">
         <v>37.677937026121199</v>
       </c>
-      <c r="H54">
+      <c r="G54">
         <f t="shared" si="1"/>
         <v>0.37490484603105673</v>
       </c>
+      <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -25122,9 +25090,8 @@
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>47</v>
       </c>
@@ -25144,10 +25111,11 @@
       <c r="F55">
         <v>46.732595991070198</v>
       </c>
-      <c r="H55">
+      <c r="G55">
         <f t="shared" si="1"/>
         <v>0.32184983464924383</v>
       </c>
+      <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -25156,9 +25124,8 @@
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>27</v>
       </c>
@@ -25178,21 +25145,21 @@
       <c r="F56">
         <v>93.868146394695401</v>
       </c>
-      <c r="H56">
+      <c r="G56">
         <f t="shared" si="1"/>
         <v>0.62578764263130271</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="37"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>63</v>
       </c>
@@ -25212,10 +25179,11 @@
       <c r="F57">
         <v>59.999267268982301</v>
       </c>
-      <c r="H57">
+      <c r="G57">
         <f t="shared" si="1"/>
         <v>0.29999633634491152</v>
       </c>
+      <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
@@ -25224,20 +25192,20 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K58" s="18"/>
-      <c r="L58" s="37"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J58" s="18"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J59" s="18"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -25246,9 +25214,9 @@
       <c r="P59" s="18"/>
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -25257,9 +25225,9 @@
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -25268,9 +25236,9 @@
       <c r="P61" s="18"/>
       <c r="Q61" s="18"/>
       <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J62" s="18"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -25279,9 +25247,9 @@
       <c r="P62" s="18"/>
       <c r="Q62" s="18"/>
       <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -25290,20 +25258,20 @@
       <c r="P63" s="18"/>
       <c r="Q63" s="18"/>
       <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K64" s="18"/>
-      <c r="L64" s="36"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J64" s="18"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
       <c r="Q64" s="18"/>
       <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-    </row>
-    <row r="65" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J65" s="18"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
@@ -25312,9 +25280,9 @@
       <c r="P65" s="18"/>
       <c r="Q65" s="18"/>
       <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-    </row>
-    <row r="66" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J66" s="18"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
@@ -25323,20 +25291,20 @@
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
       <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-    </row>
-    <row r="67" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K67" s="18"/>
-      <c r="L67" s="37"/>
+    </row>
+    <row r="67" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J67" s="18"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
       <c r="Q67" s="18"/>
       <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-    </row>
-    <row r="68" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
@@ -25345,9 +25313,9 @@
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-    </row>
-    <row r="69" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J69" s="18"/>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
@@ -25356,9 +25324,9 @@
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-    </row>
-    <row r="70" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J70" s="18"/>
       <c r="K70" s="18"/>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
@@ -25367,9 +25335,9 @@
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-    </row>
-    <row r="71" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J71" s="18"/>
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
@@ -25378,9 +25346,9 @@
       <c r="P71" s="18"/>
       <c r="Q71" s="18"/>
       <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-    </row>
-    <row r="72" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J72" s="18"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
@@ -25389,9 +25357,9 @@
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-    </row>
-    <row r="73" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J73" s="18"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -25400,9 +25368,9 @@
       <c r="P73" s="18"/>
       <c r="Q73" s="18"/>
       <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-    </row>
-    <row r="74" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -25411,9 +25379,9 @@
       <c r="P74" s="18"/>
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-    </row>
-    <row r="75" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J75" s="18"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -25422,9 +25390,9 @@
       <c r="P75" s="18"/>
       <c r="Q75" s="18"/>
       <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-    </row>
-    <row r="76" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J76" s="18"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -25433,9 +25401,9 @@
       <c r="P76" s="18"/>
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-    </row>
-    <row r="77" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J77" s="18"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
@@ -25444,9 +25412,9 @@
       <c r="P77" s="18"/>
       <c r="Q77" s="18"/>
       <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-    </row>
-    <row r="78" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J78" s="18"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
@@ -25455,16 +25423,15 @@
       <c r="P78" s="18"/>
       <c r="Q78" s="18"/>
       <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-    </row>
-    <row r="79" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="18"/>
       <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
